--- a/src/test/resources/testData/GasMileageTestData.xlsx
+++ b/src/test/resources/testData/GasMileageTestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20371"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Inna Kokoreva\Desktop\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
   <si>
     <t>Execute</t>
   </si>
@@ -52,12 +52,22 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>-1462.67</t>
+  </si>
+  <si>
+    <t>-1,462.67</t>
+  </si>
+  <si>
+    <t>FAIL!!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -411,13 +421,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="4.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="6.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="5.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -459,6 +469,15 @@
       <c r="D2">
         <v>75</v>
       </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">

--- a/src/test/resources/testData/GasMileageTestData.xlsx
+++ b/src/test/resources/testData/GasMileageTestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Inna Kokoreva\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Inna Kokoreva\IdeaProjects\cybertek21-cucumber-junit\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CCDB251-2DDF-4152-8779-C570D574A57F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26CC5370-A0BC-43AA-83D6-42BF8A969D61}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4590" xr2:uid="{E3333DA9-07F3-426D-8D1E-8716D324A9E3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>Execute</t>
   </si>
@@ -61,6 +61,21 @@
   </si>
   <si>
     <t>FAIL!!</t>
+  </si>
+  <si>
+    <t>05:34 PM</t>
+  </si>
+  <si>
+    <t>13.33</t>
+  </si>
+  <si>
+    <t>Pass!</t>
+  </si>
+  <si>
+    <t>05:36 PM</t>
+  </si>
+  <si>
+    <t>05:37:04 PM</t>
   </si>
 </sst>
 </file>
@@ -416,7 +431,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,9 +440,9 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="4.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="6.42578125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="5.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -461,7 +476,7 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>12300</v>
+        <v>123000</v>
       </c>
       <c r="C2">
         <v>122000</v>
@@ -470,13 +485,16 @@
         <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">

--- a/src/test/resources/testData/GasMileageTestData.xlsx
+++ b/src/test/resources/testData/GasMileageTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Inna Kokoreva\IdeaProjects\cybertek21-cucumber-junit\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26CC5370-A0BC-43AA-83D6-42BF8A969D61}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34C4C1A-F162-45D2-98BC-01FBF7B761D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4590" xr2:uid="{E3333DA9-07F3-426D-8D1E-8716D324A9E3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Execute</t>
   </si>
@@ -54,28 +54,55 @@
     <t>Y</t>
   </si>
   <si>
-    <t>-1462.67</t>
-  </si>
-  <si>
-    <t>-1,462.67</t>
-  </si>
-  <si>
-    <t>FAIL!!</t>
-  </si>
-  <si>
-    <t>05:34 PM</t>
-  </si>
-  <si>
     <t>13.33</t>
   </si>
   <si>
     <t>Pass!</t>
   </si>
   <si>
-    <t>05:36 PM</t>
-  </si>
-  <si>
-    <t>05:37:04 PM</t>
+    <t>05:46:44 PM</t>
+  </si>
+  <si>
+    <t>16.67</t>
+  </si>
+  <si>
+    <t>05:46:47 PM</t>
+  </si>
+  <si>
+    <t>19.18</t>
+  </si>
+  <si>
+    <t>05:46:49 PM</t>
+  </si>
+  <si>
+    <t>33.33</t>
+  </si>
+  <si>
+    <t>05:46:51 PM</t>
+  </si>
+  <si>
+    <t>05:46:54 PM</t>
+  </si>
+  <si>
+    <t>05:46:57 PM</t>
+  </si>
+  <si>
+    <t>05:47:00 PM</t>
+  </si>
+  <si>
+    <t>05:47:01 PM</t>
+  </si>
+  <si>
+    <t>05:47:03 PM</t>
+  </si>
+  <si>
+    <t>05:47:05 PM</t>
+  </si>
+  <si>
+    <t>05:47:07 PM</t>
+  </si>
+  <si>
+    <t>05:47:08 PM</t>
   </si>
 </sst>
 </file>
@@ -428,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB816D3F-640F-403A-9EC6-B5ACF0EF4272}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A10" sqref="A10:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,16 +512,16 @@
         <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -510,6 +537,18 @@
       <c r="D3">
         <v>60</v>
       </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -524,6 +563,18 @@
       <c r="D4">
         <v>150</v>
       </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -537,6 +588,226 @@
       </c>
       <c r="D5">
         <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>123000</v>
+      </c>
+      <c r="C6">
+        <v>122000</v>
+      </c>
+      <c r="D6">
+        <v>75</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>15000</v>
+      </c>
+      <c r="C7">
+        <v>14000</v>
+      </c>
+      <c r="D7">
+        <v>60</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>9877</v>
+      </c>
+      <c r="C8">
+        <v>7000</v>
+      </c>
+      <c r="D8">
+        <v>150</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>500</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>123000</v>
+      </c>
+      <c r="C10">
+        <v>122000</v>
+      </c>
+      <c r="D10">
+        <v>75</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>15000</v>
+      </c>
+      <c r="C11">
+        <v>14000</v>
+      </c>
+      <c r="D11">
+        <v>60</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>9877</v>
+      </c>
+      <c r="C12">
+        <v>7000</v>
+      </c>
+      <c r="D12">
+        <v>150</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>500</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
